--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2761868.616946732</v>
+        <v>2754695.32823645</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>226.2350166920998</v>
+      </c>
+      <c r="G2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C2" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>221.2006630000037</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.16194852731947</v>
-      </c>
       <c r="H2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.436463572939</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>15.92068873709658</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>28.69723130130875</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>21.57990476584695</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464205</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464205</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>14.83013367771038</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>328.7849895591128</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.3833425668552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>123.0405713877335</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129662</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>98.82516811392364</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>56.87637597787696</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>282.58603136691</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>96.61821613368446</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>19.85889072024105</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>126.9368849988965</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>48.6625179049547</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>150.4127183081598</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.62173365684006</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>139.8084418793349</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>13.64109019468191</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>215.2844341533059</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>135.5087383655321</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5991674685929319</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59767851474658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>19.18438355223223</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>96.84207451769305</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>1.348711718015664</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274064</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.53924625744081</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675406</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T34" t="n">
-        <v>136.2042983172036</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>117.1757456344405</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>143.3527555155855</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.52416382797675</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>132.1690274980752</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365911</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.6800813726992</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="C2" t="n">
-        <v>546.7341079359765</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="D2" t="n">
-        <v>546.7341079359765</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="E2" t="n">
-        <v>323.2990948046595</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="F2" t="n">
-        <v>316.3535940554561</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618844</v>
@@ -4330,19 +4330,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901066</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>936.4107177893538</v>
+        <v>504.7174150440222</v>
       </c>
       <c r="C3" t="n">
-        <v>815.7678252914357</v>
+        <v>330.2643857628952</v>
       </c>
       <c r="D3" t="n">
-        <v>666.8334156301844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E3" t="n">
-        <v>507.5959606247288</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4412,19 +4412,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M3" t="n">
-        <v>679.042797994484</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N3" t="n">
-        <v>952.4377465598159</v>
+        <v>815.0378848195533</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4439,22 +4439,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>1088.544551034577</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>1088.544551034577</v>
       </c>
       <c r="V3" t="n">
-        <v>1104.626054809422</v>
+        <v>1088.544551034577</v>
       </c>
       <c r="W3" t="n">
-        <v>1104.626054809422</v>
+        <v>1088.544551034577</v>
       </c>
       <c r="X3" t="n">
-        <v>1104.626054809422</v>
+        <v>880.6930508290441</v>
       </c>
       <c r="Y3" t="n">
-        <v>1104.626054809422</v>
+        <v>672.9327520640902</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>177.1948334012702</v>
+        <v>51.07962342074273</v>
       </c>
       <c r="F4" t="n">
-        <v>177.1948334012702</v>
+        <v>51.07962342074273</v>
       </c>
       <c r="G4" t="n">
-        <v>177.1948334012702</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>177.1948334012702</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
         <v>22.09252109618844</v>
@@ -4515,25 +4515,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389.7035012608083</v>
+        <v>427.4862111402817</v>
       </c>
       <c r="C5" t="n">
-        <v>389.7035012608083</v>
+        <v>427.4862111402817</v>
       </c>
       <c r="D5" t="n">
-        <v>389.7035012608083</v>
+        <v>427.4862111402817</v>
       </c>
       <c r="E5" t="n">
-        <v>389.7035012608083</v>
+        <v>51.68860422470537</v>
       </c>
       <c r="F5" t="n">
-        <v>382.7580005116048</v>
+        <v>44.7431034755019</v>
       </c>
       <c r="G5" t="n">
-        <v>367.7780675038165</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380462</v>
+        <v>57.64391735380354</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456891</v>
+        <v>220.1747338456867</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039997</v>
+        <v>474.0852112039954</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494191</v>
+        <v>773.216086049413</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635726</v>
+        <v>1062.555213635718</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293133</v>
+        <v>1290.582309293123</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935886</v>
+        <v>1447.523776935875</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385695</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385695</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385695</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="T5" t="n">
-        <v>1264.898900894983</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="U5" t="n">
-        <v>1011.052593217364</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="V5" t="n">
-        <v>679.9897058737934</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="W5" t="n">
-        <v>679.9897058737934</v>
+        <v>1135.389868115568</v>
       </c>
       <c r="X5" t="n">
-        <v>679.9897058737934</v>
+        <v>803.283818055858</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.7035012608083</v>
+        <v>803.283818055858</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154.046575909869</v>
+        <v>315.1185202999065</v>
       </c>
       <c r="C6" t="n">
-        <v>154.046575909869</v>
+        <v>140.6654910187795</v>
       </c>
       <c r="D6" t="n">
-        <v>154.046575909869</v>
+        <v>140.6654910187795</v>
       </c>
       <c r="E6" t="n">
-        <v>29.76317046771389</v>
+        <v>140.6654910187795</v>
       </c>
       <c r="F6" t="n">
-        <v>29.76317046771389</v>
+        <v>140.6654910187795</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771389</v>
+        <v>140.6654910187795</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760272</v>
+        <v>195.544616476026</v>
       </c>
       <c r="L6" t="n">
-        <v>479.862625622164</v>
+        <v>479.8626256221615</v>
       </c>
       <c r="M6" t="n">
-        <v>848.0470181904001</v>
+        <v>848.1818601601178</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181904001</v>
+        <v>1156.361899562709</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.36189956272</v>
+        <v>1156.361899562709</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.80870570669</v>
+        <v>1386.808705706679</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385695</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707617</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107486</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458534</v>
+        <v>1488.158523385682</v>
       </c>
       <c r="U6" t="n">
-        <v>804.8104831120984</v>
+        <v>1388.335121250406</v>
       </c>
       <c r="V6" t="n">
-        <v>569.6583748803557</v>
+        <v>1153.183013018663</v>
       </c>
       <c r="W6" t="n">
-        <v>569.6583748803557</v>
+        <v>898.9456562904613</v>
       </c>
       <c r="X6" t="n">
-        <v>361.8068746748229</v>
+        <v>691.0941560849285</v>
       </c>
       <c r="Y6" t="n">
-        <v>154.046575909869</v>
+        <v>483.3338573199746</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888197</v>
+        <v>32.09990175888115</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611342</v>
+        <v>90.61654790611186</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236699</v>
+        <v>162.7032697236676</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400035</v>
+        <v>238.5105468400005</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057964</v>
+        <v>292.5145415057926</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918696</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918696</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918696</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918696</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918696</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="U7" t="n">
-        <v>257.7527213657312</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="V7" t="n">
-        <v>257.7527213657312</v>
+        <v>315.2036061918652</v>
       </c>
       <c r="W7" t="n">
-        <v>257.7527213657312</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771364</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2599.55493330743</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2380.920266279493</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.158480917584</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2127.158480917584</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.158480917584</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="V10" t="n">
-        <v>599.9099084499733</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="W10" t="n">
-        <v>599.9099084499733</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="X10" t="n">
-        <v>371.9203575519559</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.9203575519559</v>
+        <v>418.6523285934727</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>181.9314425141225</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>592.8217113586352</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>462.4595652127116</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>923.2788065678495</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429513</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="W13" t="n">
-        <v>644.1080300429513</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X13" t="n">
-        <v>644.1080300429513</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.1080300429513</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5266,22 +5266,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5366,16 +5366,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.814757496977</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2446.115379232724</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.2714843595163</v>
+        <v>557.490562163493</v>
       </c>
       <c r="C16" t="n">
-        <v>696.2714843595163</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="D16" t="n">
-        <v>546.1548449471805</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333286</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.712528333286</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.919949189756</v>
+        <v>739.1390269937327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0596387883054</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883054</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1485.137391573375</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="U19" t="n">
-        <v>1170.382142722449</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="V19" t="n">
-        <v>915.6976545165625</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="W19" t="n">
-        <v>915.6976545165625</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="X19" t="n">
-        <v>687.7081036185451</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="Y19" t="n">
-        <v>687.7081036185451</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5749,34 +5749,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L21" t="n">
         <v>1099.417155020476</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.9798268587604</v>
+        <v>699.5778825909698</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>699.5778825909698</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X22" t="n">
-        <v>695.9798268587604</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.9798268587604</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
         <v>1247.466478653857</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3904.376443449036</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C25" t="n">
-        <v>3904.376443449036</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>3904.376443449036</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4437.14914771935</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4182.464659513464</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="W25" t="n">
-        <v>4182.464659513464</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X25" t="n">
-        <v>3954.475108615447</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y25" t="n">
-        <v>3954.475108615447</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6220,22 +6220,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1236.836466556558</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>2041.248044820708</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>953.4522772463521</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,7 +6496,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.29497012173</v>
@@ -6542,16 +6542,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>940.1463453738959</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
         <v>2051.878056918008</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3829.93170466737</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3829.93170466737</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3679.815065255035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3679.815065255035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3679.815065255035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3679.815065255035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3529.397056802978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4749.779469576118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4749.779469576118</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4460.362299539157</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4232.37274864114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4011.58016949761</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
@@ -6788,13 +6788,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N33" t="n">
         <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3890.044176674695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3721.107993746788</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3721.107993746788</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3721.107993746788</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746788</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746788</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T34" t="n">
-        <v>4723.274473703985</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U34" t="n">
-        <v>4434.145834917543</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V34" t="n">
-        <v>4179.461346711656</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>3890.044176674695</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>3890.044176674695</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>3890.044176674695</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975556</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1380.556931533215</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1380.556931533215</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1091.428292746773</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1091.428292746773</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>802.0111227098126</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>802.0111227098126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7171,34 +7171,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,7 +7210,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>1912.313820009359</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2432.614441745106</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1409.497923256916</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1409.497923256916</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1185.712508046422</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>896.5838692599799</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>896.5838692599799</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7642,16 +7642,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,7 +7672,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>399.6573425680668</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>230.7211596401598</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>230.7211596401598</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>230.7211596401598</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119727</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333285</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333285</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>809.2953582963241</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>581.3058073983067</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>581.3058073983067</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,10 +8072,10 @@
         <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>198.6880201340531</v>
+        <v>138.6029107835218</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948381</v>
+        <v>102.9473967948387</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>449.9671492737527</v>
+        <v>450.1033532835726</v>
       </c>
       <c r="N6" t="n">
-        <v>65.57565010062304</v>
+        <v>376.8686191941514</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>82.43314617337748</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>43.65987261462534</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.23759968302093</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735874</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>145.2351313103795</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>398.9629823660896</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>283.6093329825492</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P33" t="n">
-        <v>52.497333613053</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>20.63789864135481</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>85.30006332127807</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>230.7151863772033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>118.5843031936731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>135.8246340904175</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>127.8122289897291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>26.68512658404273</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>96.32326220911088</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>70.95291824527149</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.10673465268027</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.1104879204442</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.2343016671907</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>232.9532597715958</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>124.7054865406962</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>224.3609436710215</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>40.87999920683104</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836031</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T34" t="n">
-        <v>85.34326274118567</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>80.74506434916272</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.47922466635183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.44018857581604</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>13.25202052485619</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783893.4803848271</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783893.4803848271</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.371644819</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934482</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934482</v>
       </c>
-      <c r="O2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="P2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934482</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703855</v>
+        <v>106137.1517703819</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252094</v>
+        <v>316711.9424252128</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313465</v>
+        <v>24677.24609313372</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817092</v>
+        <v>76496.15793817183</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>291749.0011542653</v>
       </c>
       <c r="C4" t="n">
-        <v>261372.5469563264</v>
+        <v>261372.5469563274</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
@@ -26444,13 +26444,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687084</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687068</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485726</v>
+        <v>58810.42201485702</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,19 +26487,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>167083.6495269613</v>
       </c>
       <c r="C6" t="n">
-        <v>209987.2509032498</v>
+        <v>209987.2509032533</v>
       </c>
       <c r="D6" t="n">
-        <v>71103.48336967637</v>
+        <v>71103.48336967299</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903494</v>
+        <v>-34201.51867875648</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578609</v>
+        <v>490958.5177981397</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578614</v>
+        <v>490958.5177981398</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578609</v>
+        <v>490958.5177981392</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981392</v>
       </c>
       <c r="J6" t="n">
-        <v>419678.4141867218</v>
+        <v>418703.8229270005</v>
       </c>
       <c r="K6" t="n">
-        <v>467255.8629647263</v>
+        <v>466281.2717050056</v>
       </c>
       <c r="L6" t="n">
-        <v>415436.95111969</v>
+        <v>414462.3598599677</v>
       </c>
       <c r="M6" t="n">
-        <v>357132.0938240238</v>
+        <v>356157.5025643023</v>
       </c>
       <c r="N6" t="n">
-        <v>491933.1090578609</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="O6" t="n">
-        <v>491933.1090578615</v>
+        <v>490958.5177981392</v>
       </c>
       <c r="P6" t="n">
-        <v>491933.1090578614</v>
+        <v>490958.5177981392</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593904</v>
+        <v>117.5602045593876</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26755,22 +26755,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464237</v>
+        <v>372.0396308464205</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026503</v>
+        <v>82.53894384026225</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576963</v>
+        <v>260.1834596576991</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406824</v>
+        <v>95.883117144065</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081319</v>
+        <v>302.2476419081351</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406824</v>
+        <v>95.883117144065</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081319</v>
+        <v>302.2476419081352</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406824</v>
+        <v>95.883117144065</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081319</v>
+        <v>302.2476419081351</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>160.7297070722581</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>180.6410290496116</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.27203541537675</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>183.9404122350753</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>139.2305949640499</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
@@ -27587,7 +27587,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>201.3361070940997</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081706008</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225841287</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280907</v>
+        <v>192.2558301280912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385213</v>
+        <v>120.181917138522</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409303</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>40.94611111935626</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.85459608919837</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>34.60450906766742</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281871</v>
+        <v>80.69052336281892</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129699</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>127.0995780890475</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.3423548015529</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3712176435846</v>
+        <v>78.37121764358496</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322644</v>
+        <v>68.41045236322685</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255179</v>
+        <v>167.7613787255182</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
-        <v>229.4310900798048</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>3.936966969680952</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>77.79749667528705</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>9.263859234673244</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>125.2007583249315</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.288450827511648e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29924,7 +29924,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-4.430470805042811e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -30702,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.288450827511648e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,28 +31059,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246845</v>
+        <v>0.4726038374246734</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025551</v>
+        <v>4.840054050025437</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231516</v>
+        <v>18.22005944231474</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662336</v>
+        <v>40.1116599466224</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481026</v>
+        <v>60.11698038480884</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439596</v>
+        <v>74.5804300743942</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819719</v>
+        <v>82.98509856819524</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422128009</v>
+        <v>84.3278842212781</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288837</v>
+        <v>79.62842981288649</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646646</v>
+        <v>67.96102257646486</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869493</v>
+        <v>51.03589764869373</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262836</v>
+        <v>29.68720080262766</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531501</v>
+        <v>10.76945994531476</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326557</v>
+        <v>2.068823298326508</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397475</v>
+        <v>0.03780830699397386</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560472</v>
+        <v>0.2528653456560412</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941298</v>
+        <v>2.44214689094124</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596363</v>
+        <v>8.706109488596157</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182857</v>
+        <v>23.89022987182801</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078373</v>
+        <v>40.83220803078277</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483604</v>
+        <v>54.90394270483475</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486773</v>
+        <v>64.07031148486622</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198271027</v>
+        <v>65.76606198270872</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106839</v>
+        <v>60.16309827106696</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496923</v>
+        <v>48.28619043496808</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128771</v>
+        <v>32.27803956128695</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134651</v>
+        <v>15.69983260134615</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707716</v>
+        <v>4.696862889707605</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359242</v>
+        <v>1.019224792359218</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368732</v>
+        <v>0.01663587800368693</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.21199381150054</v>
+        <v>0.211993811500535</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88481770588662</v>
+        <v>1.884817705886576</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761694</v>
+        <v>6.375232076761544</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308817</v>
+        <v>14.98796247308782</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342637</v>
+        <v>24.62982646342579</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072574</v>
+        <v>31.51769812072499</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094373</v>
+        <v>33.23099356094295</v>
       </c>
       <c r="N7" t="n">
-        <v>32.4408348089872</v>
+        <v>32.44083480898643</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736724</v>
+        <v>29.96436164736653</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6396878927562</v>
+        <v>25.6396878927556</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846794</v>
+        <v>17.75159088846753</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651549</v>
+        <v>9.532012651651325</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513954</v>
+        <v>3.694473969513867</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477614</v>
+        <v>0.9057917400477401</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912037</v>
+        <v>0.0115632988091201</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34792,10 +34792,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>74.01440144649911</v>
+        <v>13.92929209596791</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>79.71116244199196</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201084</v>
+        <v>28.16237059200989</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109945</v>
+        <v>164.172541910993</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548592</v>
+        <v>256.4752296548574</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337569</v>
+        <v>302.152398833755</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366733</v>
+        <v>292.2617450366714</v>
       </c>
       <c r="O5" t="n">
-        <v>230.330399653947</v>
+        <v>230.3303996539451</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926796</v>
+        <v>158.526734992678</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843415013</v>
+        <v>41.04519843414892</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690033</v>
+        <v>167.4560060690024</v>
       </c>
       <c r="L6" t="n">
-        <v>287.189908228421</v>
+        <v>287.1899082284198</v>
       </c>
       <c r="M6" t="n">
-        <v>371.9034268366021</v>
+        <v>372.0396308464205</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>311.2929690935268</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033535</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605762</v>
+        <v>232.774551660575</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111153</v>
+        <v>102.3735532111145</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543513</v>
+        <v>2.360334637542934</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104188</v>
+        <v>59.10772338104113</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278432</v>
+        <v>72.81487052278354</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882158</v>
+        <v>76.57300718821503</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140692</v>
+        <v>54.5494895614062</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764969</v>
+        <v>22.91824715764909</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>85.570051569532</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.2506324680951</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296117</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>455.6595083608457</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>709.3873594165558</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>532.8670379385735</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37156,19 +37156,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P33" t="n">
-        <v>259.5907485445777</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>353.8324720393676</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37642,10 +37642,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37861,19 +37861,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>479.9728913332276</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
@@ -38098,25 +38098,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655654</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187463</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
